--- a/06_Battery/05_Model_thermoelectrique/Model_120S2P/Cell_data.xlsx
+++ b/06_Battery/05_Model_thermoelectrique/Model_120S2P/Cell_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15204" windowHeight="8472" activeTab="2"/>
+    <workbookView windowWidth="9840" windowHeight="8472" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="soc_temp2Rin(Ohm)" sheetId="1" r:id="rId1"/>
@@ -74,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,14 +90,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,9 +165,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,75 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -204,22 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +225,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,37 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,145 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,15 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,35 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +490,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -538,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,60 +687,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9"/>
-    <cellStyle name="Virgule" xfId="3" builtinId="3"/>
-    <cellStyle name="60 % - Accent6" xfId="4" builtinId="52"/>
-    <cellStyle name="Calcul" xfId="5" builtinId="22"/>
-    <cellStyle name="Titre" xfId="6" builtinId="15"/>
-    <cellStyle name="Monétaire [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="Monétaire" xfId="8" builtinId="4"/>
-    <cellStyle name="Milliers [0]" xfId="9" builtinId="6"/>
-    <cellStyle name="Cellule liée" xfId="10" builtinId="24"/>
-    <cellStyle name="Pourcentage" xfId="11" builtinId="5"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8"/>
-    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
-    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
-    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
-    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
-    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
-    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
-    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
-    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
-    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
-    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
-    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
-    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
-    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
-    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
-    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
-    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
-    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
-    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
-    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
-    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
-    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
     <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
-    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1009,18 +1009,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1036,14 @@
       <c r="E1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1053,8 +1059,14 @@
       <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1070,8 +1082,14 @@
       <c r="E3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>10.5</v>
+      </c>
+      <c r="G3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -1087,8 +1105,14 @@
       <c r="E4">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -1104,8 +1128,14 @@
       <c r="E5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>9.7</v>
+      </c>
+      <c r="G5">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -1121,8 +1151,14 @@
       <c r="E6">
         <v>9.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>9.5</v>
+      </c>
+      <c r="G6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -1138,8 +1174,14 @@
       <c r="E7">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>9.3</v>
+      </c>
+      <c r="G7">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -1155,8 +1197,14 @@
       <c r="E8">
         <v>9.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>9.1</v>
+      </c>
+      <c r="G8">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -1172,8 +1220,14 @@
       <c r="E9">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -1189,8 +1243,14 @@
       <c r="E10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -1206,8 +1266,14 @@
       <c r="E11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1221,6 +1287,12 @@
         <v>8</v>
       </c>
       <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
         <v>8</v>
       </c>
     </row>
@@ -1233,18 +1305,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1332,14 @@
       <c r="E1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1277,8 +1355,14 @@
       <c r="E2">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>3.62</v>
+      </c>
+      <c r="G2">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -1294,8 +1378,14 @@
       <c r="E3">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>3.61</v>
+      </c>
+      <c r="G3">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -1311,8 +1401,14 @@
       <c r="E4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>3.6</v>
+      </c>
+      <c r="G4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -1328,8 +1424,14 @@
       <c r="E5">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>3.59</v>
+      </c>
+      <c r="G5">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.6</v>
       </c>
@@ -1345,8 +1447,14 @@
       <c r="E6" s="1">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -1362,8 +1470,14 @@
       <c r="E7">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>3.57</v>
+      </c>
+      <c r="G7">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.4</v>
       </c>
@@ -1379,8 +1493,14 @@
       <c r="E8">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>3.56</v>
+      </c>
+      <c r="G8">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -1396,8 +1516,14 @@
       <c r="E9">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>3.55</v>
+      </c>
+      <c r="G9">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -1413,8 +1539,14 @@
       <c r="E10">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>3.54</v>
+      </c>
+      <c r="G10">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -1430,8 +1562,14 @@
       <c r="E11">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>3.53</v>
+      </c>
+      <c r="G11">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1445,6 +1583,12 @@
         <v>3.53</v>
       </c>
       <c r="E12">
+        <v>3.52</v>
+      </c>
+      <c r="F12">
+        <v>3.52</v>
+      </c>
+      <c r="G12">
         <v>3.52</v>
       </c>
     </row>
@@ -1459,7 +1603,7 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/06_Battery/05_Model_thermoelectrique/Model_120S2P/Cell_data.xlsx
+++ b/06_Battery/05_Model_thermoelectrique/Model_120S2P/Cell_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9840" windowHeight="8472" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9335" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="soc_temp2Rin(Ohm)" sheetId="1" r:id="rId1"/>
@@ -74,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +90,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -97,14 +128,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,39 +197,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,17 +212,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,57 +226,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,37 +490,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,31 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,60 +687,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9"/>
+    <cellStyle name="Virgule" xfId="3" builtinId="3"/>
+    <cellStyle name="60 % - Accent6" xfId="4" builtinId="52"/>
+    <cellStyle name="Calcul" xfId="5" builtinId="22"/>
+    <cellStyle name="Titre" xfId="6" builtinId="15"/>
+    <cellStyle name="Monétaire [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="Monétaire" xfId="8" builtinId="4"/>
+    <cellStyle name="Milliers [0]" xfId="9" builtinId="6"/>
+    <cellStyle name="Cellule liée" xfId="10" builtinId="24"/>
+    <cellStyle name="Pourcentage" xfId="11" builtinId="5"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8"/>
+    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
+    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
+    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
+    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
+    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
+    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
+    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
+    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
+    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
+    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
+    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
+    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
+    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
+    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
+    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
+    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
+    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
+    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
+    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
+    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
+    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
+    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
+    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
+    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
     <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
+    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1307,7 +1307,7 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1603,8 +1603,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
